--- a/biology/Microbiologie/Conosa/Conosa.xlsx
+++ b/biology/Microbiologie/Conosa/Conosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Conosa est un sous-embranchement d'amibozoaires. Le groupe des Conosa inclut les espèces Dictyostelium discoideum et Entamoeba histolytica, entre autres[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conosa est un sous-embranchement d'amibozoaires. Le groupe des Conosa inclut les espèces Dictyostelium discoideum et Entamoeba histolytica, entre autres.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des sous-taxons</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon IRMNG  (23 janvier 2023)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon IRMNG  (23 janvier 2023) :
 Classe des Archamoebea
 Classe des Myxogastrea
 Classe des Stelamoebea
@@ -521,7 +535,7 @@
 Selon The Taxonomicon (23 janvier 2023) :
 Infra-embranchement des Semiconosia (Cavalier-Smith, 2012)
 Infra-embranchement des Archamoebae (Cavalier-Smith, 1983) (monotypique)
-Selon World Register of Marine Species                               (23 janvier 2023)[3] :
+Selon World Register of Marine Species                               (23 janvier 2023) :
 Infra-embranchement des Archamoebae
 Infra-embranchement des Mycetozoa</t>
         </is>
